--- a/Planilhas do Ensaio de Tração/Tração_03_B.xlsx
+++ b/Planilhas do Ensaio de Tração/Tração_03_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eikis\Desktop\Insper\3-Semestre\Desconstruindo a Matéria\LB3_Arthur_Eiki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eiki\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244108EF-FD7B-48DB-899F-4C75791BE6F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F262B1AD-9870-4429-AD1B-3481A2879A67}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02" sheetId="1" r:id="rId1"/>
@@ -662,7 +662,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -676,13 +676,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="pt-BR"/>
-              <a:t>Polímero</a:t>
+              <a:t>Polímero 3: Deformação (Extensômetro) versus Tensão</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> 3: Tensão versus Deformação Extensômetro</a:t>
-            </a:r>
-            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -707,7 +702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="sng" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -730,8 +725,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.0443931759650042E-2"/>
-          <c:y val="0.19670297810340784"/>
+          <c:x val="5.0443970705795482E-2"/>
+          <c:y val="0.17448468765772523"/>
           <c:w val="0.90295961837483807"/>
           <c:h val="0.70001118335692125"/>
         </c:manualLayout>
@@ -781,7 +776,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -1815,6 +1810,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tensão (N/mm²)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.40801245793839885"/>
+              <c:y val="0.94188479828225835"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1837,7 +1895,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1877,6 +1935,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Deformação (MPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1899,7 +2012,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1957,7 +2070,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr u="sng"/>
       </a:pPr>
       <a:endParaRPr lang="pt-BR"/>
     </a:p>
@@ -2009,12 +2122,20 @@
             </a:r>
             <a:r>
               <a:rPr lang="pt-BR" baseline="0"/>
-              <a:t> 3: Tensão versus Deformação Estimada</a:t>
+              <a:t> 3:  Deformação (Estimada) versus Tensão</a:t>
             </a:r>
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14064650028537332"/>
+          <c:y val="2.2302613093565609E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2056,7 +2177,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -11162,6 +11283,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Tensão (N/mm²)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11224,6 +11400,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Deformação (MPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12434,15 +12665,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>272610</xdr:colOff>
+      <xdr:colOff>272609</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>108239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>815396</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>146488</xdr:rowOff>
+      <xdr:colOff>898070</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12469,16 +12700,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>305457</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>116270</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>948704</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>72159</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>165966</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12501,6 +12732,66 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Elipse 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8C8C2F-3125-4D1A-ACFA-A9C88E052743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14458950" y="1504950"/>
+          <a:ext cx="85725" cy="85725"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12805,8 +13096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34033,7 +34324,7 @@
         <v>3.2</v>
       </c>
       <c r="E963">
-        <f t="shared" ref="E963:E1008" si="30">B963/$J$2</f>
+        <f t="shared" ref="E963:E1001" si="30">B963/$J$2</f>
         <v>8.5937499999999982</v>
       </c>
       <c r="F963">
@@ -34884,21 +35175,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010064864F282976314B89D15DAB2B6734B2" ma:contentTypeVersion="3" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="ba5546f40ba77c1723a7bfa7be39819a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e8c7c3d-e260-4705-a286-e09602e139ac" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a32b26432d5fa5ed661099983514cfc2" ns2:_="">
     <xsd:import namespace="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
@@ -35036,31 +35312,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85CA6E4-D881-48E7-94AA-728BDEAF2DAA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8465BFBA-1DA2-4A2D-9AAD-EE0BFDDB6D00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{42F2479B-F057-41D7-8878-0F1E1A29AC7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35076,4 +35343,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8465BFBA-1DA2-4A2D-9AAD-EE0BFDDB6D00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="8e8c7c3d-e260-4705-a286-e09602e139ac"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C85CA6E4-D881-48E7-94AA-728BDEAF2DAA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>